--- a/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type1/pd_results_W15_H50_B16.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type1/pd_results_W15_H50_B16.xlsx
@@ -518,7 +518,7 @@
         <v>0.7123287671232876</v>
       </c>
       <c r="G2" t="n">
-        <v>0.513677811550152</v>
+        <v>0.4893617021276596</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1371305599978928</v>
+        <v>0.1053247749673829</v>
       </c>
       <c r="J2" t="n">
-        <v>1806.845736115252</v>
+        <v>1412.072480831382</v>
       </c>
       <c r="K2" t="n">
-        <v>4323734.854732695</v>
+        <v>2939449.696349074</v>
       </c>
       <c r="L2" t="n">
-        <v>2079.359241384878</v>
+        <v>1714.482340634944</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1870431797386662</v>
+        <v>0.4473190982452553</v>
       </c>
     </row>
   </sheetData>
